--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J2">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>60.27622803925821</v>
+        <v>0.7226152798153332</v>
       </c>
       <c r="R2">
-        <v>542.4860523533239</v>
+        <v>6.503537518338</v>
       </c>
       <c r="S2">
-        <v>0.07748747659935257</v>
+        <v>0.001310338592634735</v>
       </c>
       <c r="T2">
-        <v>0.07748747659935257</v>
+        <v>0.001310338592634735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J3">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>111.6735629855323</v>
+        <v>1.366540774951333</v>
       </c>
       <c r="R3">
-        <v>1005.062066869791</v>
+        <v>12.298866974562</v>
       </c>
       <c r="S3">
-        <v>0.1435607847420681</v>
+        <v>0.002477986787499583</v>
       </c>
       <c r="T3">
-        <v>0.1435607847420681</v>
+        <v>0.002477986787499583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.123204333333333</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>12.369613</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="J4">
-        <v>0.2909967288544799</v>
+        <v>0.004442474524580737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>54.41175740711922</v>
+        <v>0.3607450545317777</v>
       </c>
       <c r="R4">
-        <v>489.705816664073</v>
+        <v>3.246705490786</v>
       </c>
       <c r="S4">
-        <v>0.06994846751305916</v>
+        <v>0.0006541491444464196</v>
       </c>
       <c r="T4">
-        <v>0.06994846751305916</v>
+        <v>0.0006541491444464194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.300919</v>
       </c>
       <c r="I5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J5">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>123.2895453759791</v>
+        <v>120.7855837028796</v>
       </c>
       <c r="R5">
-        <v>1109.605908383812</v>
+        <v>1087.070253325917</v>
       </c>
       <c r="S5">
-        <v>0.1584935898119541</v>
+        <v>0.2190238930461624</v>
       </c>
       <c r="T5">
-        <v>0.1584935898119541</v>
+        <v>0.2190238930461624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.300919</v>
       </c>
       <c r="I6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J6">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>228.4181220171037</v>
@@ -818,10 +818,10 @@
         <v>2055.763098153933</v>
       </c>
       <c r="S6">
-        <v>0.2936405355879365</v>
+        <v>0.4141969992838363</v>
       </c>
       <c r="T6">
-        <v>0.2936405355879365</v>
+        <v>0.4141969992838363</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.300919</v>
       </c>
       <c r="I7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="J7">
-        <v>0.5952073574179045</v>
+        <v>0.7425623198471305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>111.2943037753221</v>
+        <v>60.29875536354988</v>
       </c>
       <c r="R7">
-        <v>1001.648733977899</v>
+        <v>542.6887982719489</v>
       </c>
       <c r="S7">
-        <v>0.1430732320180139</v>
+        <v>0.1093414275171317</v>
       </c>
       <c r="T7">
-        <v>0.1430732320180139</v>
+        <v>0.1093414275171317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H8">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J8">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>23.57135928222623</v>
+        <v>41.152335324709</v>
       </c>
       <c r="R8">
-        <v>212.142233540036</v>
+        <v>370.371017922381</v>
       </c>
       <c r="S8">
-        <v>0.03030191520290284</v>
+        <v>0.07462268603950942</v>
       </c>
       <c r="T8">
-        <v>0.03030191520290283</v>
+        <v>0.07462268603950942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H9">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J9">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>43.67057729199433</v>
+        <v>77.82335327874101</v>
       </c>
       <c r="R9">
-        <v>393.035195627949</v>
+        <v>700.4101795086691</v>
       </c>
       <c r="S9">
-        <v>0.05614025538873572</v>
+        <v>0.1411192733641631</v>
       </c>
       <c r="T9">
-        <v>0.05614025538873571</v>
+        <v>0.1411192733641631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.612402333333333</v>
+        <v>2.873389</v>
       </c>
       <c r="H10">
-        <v>4.837207</v>
+        <v>8.620167</v>
       </c>
       <c r="I10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="J10">
-        <v>0.1137959137276156</v>
+        <v>0.2529952056282888</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>21.27802493190523</v>
+        <v>20.54412889610633</v>
       </c>
       <c r="R10">
-        <v>191.502224387147</v>
+        <v>184.897160064957</v>
       </c>
       <c r="S10">
-        <v>0.02735374313597705</v>
+        <v>0.03725324622461623</v>
       </c>
       <c r="T10">
-        <v>0.02735374313597705</v>
+        <v>0.03725324622461622</v>
       </c>
     </row>
   </sheetData>
